--- a/data/trans_orig/P36B17-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B17-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>119466</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100409</v>
+        <v>100179</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>141235</v>
+        <v>138307</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2403003759228588</v>
+        <v>0.2403003759228587</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2019686648141904</v>
+        <v>0.2015060593969152</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2840867409841532</v>
+        <v>0.278199003657863</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>291</v>
@@ -762,19 +762,19 @@
         <v>185325</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>166368</v>
+        <v>166157</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>204620</v>
+        <v>206940</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2977424541444395</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2672861601914224</v>
+        <v>0.2669473073272517</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3287421781682749</v>
+        <v>0.3324682481344977</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>417</v>
@@ -783,19 +783,19 @@
         <v>304791</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>279650</v>
+        <v>277926</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>336212</v>
+        <v>333538</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2722352752092166</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2497794098548057</v>
+        <v>0.2482400198277487</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3002997501953624</v>
+        <v>0.297911216757169</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>140102</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121142</v>
+        <v>119590</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>164212</v>
+        <v>162052</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2818081620075854</v>
+        <v>0.2818081620075853</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2436712472924595</v>
+        <v>0.2405505098985056</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3303043631741523</v>
+        <v>0.3259593021175921</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>270</v>
@@ -833,19 +833,19 @@
         <v>198116</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>179133</v>
+        <v>174940</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>220657</v>
+        <v>218504</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.318292050979833</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2877948882731944</v>
+        <v>0.2810577330858457</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3545071531253374</v>
+        <v>0.3510472777954951</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>404</v>
@@ -854,19 +854,19 @@
         <v>338218</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>310700</v>
+        <v>310346</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>369757</v>
+        <v>367825</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3020913647741884</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2775128826571389</v>
+        <v>0.2771965179201664</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3302616051141771</v>
+        <v>0.3285364564891591</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>141489</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>118824</v>
+        <v>119273</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>165795</v>
+        <v>166366</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2845994986061846</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2390090696239457</v>
+        <v>0.2399115602499596</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3334889423537435</v>
+        <v>0.3346368903157114</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>241</v>
@@ -904,19 +904,19 @@
         <v>193273</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>171961</v>
+        <v>172953</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>214821</v>
+        <v>215977</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3105117460730178</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2762724628232635</v>
+        <v>0.2778649180963993</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3451308420381055</v>
+        <v>0.3469885642460382</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>360</v>
@@ -925,19 +925,19 @@
         <v>334763</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>305799</v>
+        <v>300764</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>368814</v>
+        <v>364994</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2990054017133882</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2731354424629497</v>
+        <v>0.2686380431358213</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.329419326853246</v>
+        <v>0.3260077419072699</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>68630</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51205</v>
+        <v>51806</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91335</v>
+        <v>89948</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1380458244316773</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.102996776977151</v>
+        <v>0.104205129779322</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1837159896476011</v>
+        <v>0.1809254190532126</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -975,19 +975,19 @@
         <v>41295</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30671</v>
+        <v>30933</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54851</v>
+        <v>55953</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06634437285954989</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04927636716696941</v>
+        <v>0.04969633205705461</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08812337618600062</v>
+        <v>0.08989335449546915</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -996,19 +996,19 @@
         <v>109925</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90085</v>
+        <v>89805</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>136195</v>
+        <v>133886</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09818343251387762</v>
+        <v>0.09818343251387761</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08046264835521041</v>
+        <v>0.08021296418002341</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1216478421287942</v>
+        <v>0.1195854318689121</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>27466</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18484</v>
+        <v>17649</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>42379</v>
+        <v>42246</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05524613903169397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0371800982438205</v>
+        <v>0.03550099195718712</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08524264076375485</v>
+        <v>0.08497579397049559</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1049,16 +1049,16 @@
         <v>1616</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9540</v>
+        <v>9135</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007109375943159768</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002596367188132036</v>
+        <v>0.002595475781899802</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01532673989426469</v>
+        <v>0.01467689910620018</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -1067,19 +1067,19 @@
         <v>31891</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>22049</v>
+        <v>20916</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47066</v>
+        <v>45802</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.02848452578932915</v>
+        <v>0.02848452578932914</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01969388505068069</v>
+        <v>0.01868207601838873</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04203874564582347</v>
+        <v>0.0409101402553575</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>192903</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169590</v>
+        <v>169638</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>217035</v>
+        <v>222302</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2009122444394943</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1766305838432102</v>
+        <v>0.1766811712494629</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2260457664080302</v>
+        <v>0.2315315808300491</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>473</v>
@@ -1192,19 +1192,19 @@
         <v>280334</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>258610</v>
+        <v>256794</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>305758</v>
+        <v>305215</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2522708375937497</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2327217400983018</v>
+        <v>0.2310877008545283</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2751496867590207</v>
+        <v>0.2746612372689154</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>706</v>
@@ -1213,19 +1213,19 @@
         <v>473237</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>439772</v>
+        <v>438450</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>511039</v>
+        <v>506139</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2284648102241373</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2123088529031134</v>
+        <v>0.2116708592295873</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2467147456346019</v>
+        <v>0.2443490140377361</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>274152</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>243275</v>
+        <v>246124</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>304952</v>
+        <v>307197</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2855338257686982</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2533749210853029</v>
+        <v>0.2563425505461823</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3176131386734574</v>
+        <v>0.3199511542392519</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>547</v>
@@ -1263,19 +1263,19 @@
         <v>376307</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>350350</v>
+        <v>347203</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>405664</v>
+        <v>404404</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.338636457431312</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3152780769800342</v>
+        <v>0.3124463946091457</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3650549707496923</v>
+        <v>0.363921261032102</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>813</v>
@@ -1284,19 +1284,19 @@
         <v>650458</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>614263</v>
+        <v>610125</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>697824</v>
+        <v>694001</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3140220234073557</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2965479069431416</v>
+        <v>0.2945503365105387</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3368888717083369</v>
+        <v>0.3350431963977251</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>385406</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>352829</v>
+        <v>354043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>421515</v>
+        <v>420594</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4014069417284046</v>
+        <v>0.4014069417284048</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3674772485784986</v>
+        <v>0.3687421004379266</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.43901592303673</v>
+        <v>0.4380562517016214</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>498</v>
@@ -1334,19 +1334,19 @@
         <v>382108</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>354113</v>
+        <v>351271</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>410238</v>
+        <v>410499</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3438572086827884</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3186646009882828</v>
+        <v>0.3161065015792028</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3691709795964424</v>
+        <v>0.3694057995241911</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>820</v>
@@ -1355,19 +1355,19 @@
         <v>767514</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>721721</v>
+        <v>725286</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>815067</v>
+        <v>814086</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3705329884472953</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3484257652542512</v>
+        <v>0.3501468567125244</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3934900411128207</v>
+        <v>0.3930166933337702</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>82087</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63542</v>
+        <v>64471</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104751</v>
+        <v>104724</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08549475427945609</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06618022560428814</v>
+        <v>0.06714762926539493</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1091000141778747</v>
+        <v>0.109071822185904</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -1405,19 +1405,19 @@
         <v>50485</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39887</v>
+        <v>38968</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66889</v>
+        <v>65431</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04543155491143796</v>
+        <v>0.04543155491143795</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03589370816828403</v>
+        <v>0.0350667218503948</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06019295351474236</v>
+        <v>0.05888063688582364</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -1426,19 +1426,19 @@
         <v>132572</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>110116</v>
+        <v>111617</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>160289</v>
+        <v>161247</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06400187707358726</v>
+        <v>0.06400187707358725</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05316076501755253</v>
+        <v>0.05388550836766245</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07738273286644029</v>
+        <v>0.07784545809751672</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>25590</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15926</v>
+        <v>16232</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41491</v>
+        <v>41101</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02665223378394681</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0165873552468933</v>
+        <v>0.01690620033425057</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04321397665261764</v>
+        <v>0.042807232885677</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1476,19 +1476,19 @@
         <v>22007</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14051</v>
+        <v>13887</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34139</v>
+        <v>34511</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0198039413807119</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01264477557132429</v>
+        <v>0.01249671661113124</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03072195819191048</v>
+        <v>0.03105599242390359</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>44</v>
@@ -1497,19 +1497,19 @@
         <v>47597</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35243</v>
+        <v>33801</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>66255</v>
+        <v>65254</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02297830084762442</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01701411773465481</v>
+        <v>0.01631807483926987</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03198595818567673</v>
+        <v>0.03150271870855865</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>271044</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>241733</v>
+        <v>240994</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>302803</v>
+        <v>303307</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2591376194151995</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2311144155909121</v>
+        <v>0.2304077295031446</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2895019741372637</v>
+        <v>0.2899837884187495</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>482</v>
@@ -1622,19 +1622,19 @@
         <v>303040</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>278689</v>
+        <v>278723</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>328466</v>
+        <v>326446</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2897585923340995</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2664751406319526</v>
+        <v>0.2665071952235212</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3140704895197944</v>
+        <v>0.3121391627064274</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>769</v>
@@ -1643,19 +1643,19 @@
         <v>574084</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>530601</v>
+        <v>538442</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>612071</v>
+        <v>617995</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2744472961585129</v>
+        <v>0.2744472961585128</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2536596246555717</v>
+        <v>0.2574083321216719</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2926076205303812</v>
+        <v>0.2954396836444951</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>338467</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>307456</v>
+        <v>307554</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>369105</v>
+        <v>369131</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3235990005952807</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2939496938344121</v>
+        <v>0.2940435694773751</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3528909503262389</v>
+        <v>0.352915776896165</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>549</v>
@@ -1693,19 +1693,19 @@
         <v>384780</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>357771</v>
+        <v>358406</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>414177</v>
+        <v>411188</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3679166464959436</v>
+        <v>0.3679166464959437</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3420912958467201</v>
+        <v>0.3426981905153946</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3960249667853659</v>
+        <v>0.3931675354218659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>895</v>
@@ -1714,19 +1714,19 @@
         <v>723248</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>678315</v>
+        <v>679152</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>764898</v>
+        <v>767630</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3457566516457801</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3242761883407932</v>
+        <v>0.324676462978489</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3656681770580201</v>
+        <v>0.3669743907206987</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>369978</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>337189</v>
+        <v>335894</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>405235</v>
+        <v>405012</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3537255713903541</v>
+        <v>0.353725571390354</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3223770661913665</v>
+        <v>0.3211384763728736</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3874340839092791</v>
+        <v>0.3872203190543824</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>420</v>
@@ -1764,19 +1764,19 @@
         <v>304466</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>278584</v>
+        <v>280212</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>333467</v>
+        <v>331745</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2911224575242297</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2663747773618274</v>
+        <v>0.2679311369938432</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3188520418242905</v>
+        <v>0.3172062027213728</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>758</v>
@@ -1785,19 +1785,19 @@
         <v>674444</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>631660</v>
+        <v>630814</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>716685</v>
+        <v>716509</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.322425669883187</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3019721594918843</v>
+        <v>0.3015678227042363</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3426192664238034</v>
+        <v>0.3425350162890598</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>44453</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32433</v>
+        <v>31821</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61328</v>
+        <v>59395</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04249991638050869</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03100794390186349</v>
+        <v>0.03042303267834304</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0586342962157804</v>
+        <v>0.05678551076962325</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -1835,19 +1835,19 @@
         <v>42125</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31424</v>
+        <v>32166</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>58389</v>
+        <v>56816</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04027922575428227</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03004703133686478</v>
+        <v>0.03075628908712273</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05583030698938969</v>
+        <v>0.0543260801099557</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>90</v>
@@ -1856,19 +1856,19 @@
         <v>86578</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>70750</v>
+        <v>69379</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>108634</v>
+        <v>106949</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04138962978953469</v>
+        <v>0.0413896297895347</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0338229212177555</v>
+        <v>0.03316735908997152</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05193375472141357</v>
+        <v>0.05112813636889612</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>22004</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12920</v>
+        <v>13074</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37053</v>
+        <v>36755</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02103789221865702</v>
+        <v>0.02103789221865701</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01235230818675574</v>
+        <v>0.01249926112041445</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03542544025176084</v>
+        <v>0.03514082742858875</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -1906,19 +1906,19 @@
         <v>11424</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6724</v>
+        <v>6508</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20326</v>
+        <v>20559</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01092307789144486</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00642893369542746</v>
+        <v>0.006223100603518759</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01943499305041037</v>
+        <v>0.01965754341867817</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>29</v>
@@ -1927,19 +1927,19 @@
         <v>33428</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22140</v>
+        <v>22460</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>52139</v>
+        <v>50656</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01598075252298547</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0105844423643296</v>
+        <v>0.01073742690652247</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02492544138005771</v>
+        <v>0.02421676480229413</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>314572</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>283347</v>
+        <v>282007</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>345321</v>
+        <v>347014</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.322811337281218</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2907692885549558</v>
+        <v>0.289393662202304</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3543660885685464</v>
+        <v>0.3561031339290631</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>473</v>
@@ -2052,19 +2052,19 @@
         <v>316877</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>291167</v>
+        <v>292823</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>342852</v>
+        <v>341297</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3500296790257377</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3216294447628881</v>
+        <v>0.3234587380500613</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.378722192469429</v>
+        <v>0.3770044049224259</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>808</v>
@@ -2073,19 +2073,19 @@
         <v>631449</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>593278</v>
+        <v>591612</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>674088</v>
+        <v>672697</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3359195974188825</v>
+        <v>0.3359195974188824</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3156133319726168</v>
+        <v>0.3147272181683271</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3586026311031721</v>
+        <v>0.3578627091462406</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>368507</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>335136</v>
+        <v>336859</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>401814</v>
+        <v>401879</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3781591243880438</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3439148016088928</v>
+        <v>0.3456826832760044</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4123392710453134</v>
+        <v>0.4124053885781402</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>553</v>
@@ -2123,19 +2123,19 @@
         <v>355809</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>331430</v>
+        <v>330235</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>379810</v>
+        <v>381377</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3930347158403492</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3661045661181417</v>
+        <v>0.3647846956499406</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4195470290621474</v>
+        <v>0.4212775506985513</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>918</v>
@@ -2144,19 +2144,19 @@
         <v>724316</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>685704</v>
+        <v>682821</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>768793</v>
+        <v>765776</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3853231582696339</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3647822456430756</v>
+        <v>0.3632487747145138</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.408984474611488</v>
+        <v>0.4073791450725609</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>237630</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>206484</v>
+        <v>209026</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>269794</v>
+        <v>270844</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2438545363950587</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2118922721002583</v>
+        <v>0.214501590104392</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2768607166816249</v>
+        <v>0.2779384638662413</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>225</v>
@@ -2194,19 +2194,19 @@
         <v>177567</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>157212</v>
+        <v>155685</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>204111</v>
+        <v>202624</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1961440890185572</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1736593079621736</v>
+        <v>0.1719728601205691</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.225465787393882</v>
+        <v>0.2238230153104181</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>427</v>
@@ -2215,19 +2215,19 @@
         <v>415197</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>376197</v>
+        <v>378133</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>456059</v>
+        <v>456337</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2208773483883185</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2001299047300701</v>
+        <v>0.2011598237537107</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.242615215289119</v>
+        <v>0.2427629290115394</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>41888</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27320</v>
+        <v>28489</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>61278</v>
+        <v>61916</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.0429849492667866</v>
+        <v>0.04298494926678659</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02803542167999533</v>
+        <v>0.02923525772060034</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06288344828628471</v>
+        <v>0.06353776945056741</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -2265,19 +2265,19 @@
         <v>42568</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30964</v>
+        <v>30744</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>58834</v>
+        <v>58280</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04702165395312132</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0342033071156294</v>
+        <v>0.03396072836593751</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0649890554114356</v>
+        <v>0.06437711676363317</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>82</v>
@@ -2286,19 +2286,19 @@
         <v>84456</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>65459</v>
+        <v>65117</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>110580</v>
+        <v>107793</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04492901241450056</v>
+        <v>0.04492901241450055</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03482302954351132</v>
+        <v>0.03464119918182315</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05882649839227635</v>
+        <v>0.05734391469019173</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>11879</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5715</v>
+        <v>5803</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22878</v>
+        <v>22059</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01219005266889288</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005865159287640957</v>
+        <v>0.005954924036199165</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02347705826877221</v>
+        <v>0.02263674082416851</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -2336,19 +2336,19 @@
         <v>12466</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7532</v>
+        <v>7233</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20595</v>
+        <v>22574</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.01376986216223464</v>
+        <v>0.01376986216223463</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008320557943122819</v>
+        <v>0.007989717017816755</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02274945668060431</v>
+        <v>0.024935500347617</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>26</v>
@@ -2357,19 +2357,19 @@
         <v>24345</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15855</v>
+        <v>15623</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38185</v>
+        <v>36514</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01295088350866457</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008434496806076611</v>
+        <v>0.008311363434692076</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02031384191962905</v>
+        <v>0.01942485795174477</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>897985</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>840767</v>
+        <v>847351</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>947709</v>
+        <v>952567</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2582114757599501</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2417587080870366</v>
+        <v>0.243652016779359</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2725093755136953</v>
+        <v>0.2739062220217085</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1719</v>
@@ -2482,19 +2482,19 @@
         <v>1085576</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1036671</v>
+        <v>1040603</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1136805</v>
+        <v>1136068</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2946093711796675</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2813372250426289</v>
+        <v>0.2824045164826028</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3085122048684851</v>
+        <v>0.3083122064685904</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2700</v>
@@ -2503,19 +2503,19 @@
         <v>1983561</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1903796</v>
+        <v>1910410</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2058466</v>
+        <v>2059665</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2769366011409468</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2658001278468748</v>
+        <v>0.2667235964187263</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2873945757816916</v>
+        <v>0.2875619372179855</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>1121227</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1061718</v>
+        <v>1060647</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1185929</v>
+        <v>1183565</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3224037496757845</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3052921318692848</v>
+        <v>0.3049842650438716</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3410083651139174</v>
+        <v>0.3403287234424676</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1919</v>
@@ -2553,19 +2553,19 @@
         <v>1315012</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1260179</v>
+        <v>1267727</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1368596</v>
+        <v>1367083</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3568749752771222</v>
+        <v>0.3568749752771223</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3419941760878474</v>
+        <v>0.3440426576961236</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3714168623552092</v>
+        <v>0.3710063953885944</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3030</v>
@@ -2574,19 +2574,19 @@
         <v>2436239</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2353523</v>
+        <v>2352223</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2511484</v>
+        <v>2514651</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3401376876955087</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3285891549354425</v>
+        <v>0.3284077213369477</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3506430173670492</v>
+        <v>0.3510852609478081</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>1134503</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1074387</v>
+        <v>1075006</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1203040</v>
+        <v>1197229</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3262212135852397</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3089350509777163</v>
+        <v>0.3091131047493134</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3459287200656273</v>
+        <v>0.344257741658087</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1384</v>
@@ -2624,19 +2624,19 @@
         <v>1057414</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1006458</v>
+        <v>1008343</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1107111</v>
+        <v>1111600</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2869667009399184</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2731379531432823</v>
+        <v>0.2736496088188483</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3004538396135105</v>
+        <v>0.3016720434099257</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2365</v>
@@ -2645,19 +2645,19 @@
         <v>2191917</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2118878</v>
+        <v>2113298</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2276147</v>
+        <v>2268651</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3060264835719386</v>
+        <v>0.3060264835719387</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2958289584557054</v>
+        <v>0.295049991508209</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3177862361514046</v>
+        <v>0.3167396960966139</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>237057</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>205244</v>
+        <v>204426</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>276714</v>
+        <v>273036</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.06816465072109092</v>
+        <v>0.06816465072109093</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05901689518372993</v>
+        <v>0.0587818181082536</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07956790108143368</v>
+        <v>0.07851035777816032</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>209</v>
@@ -2695,19 +2695,19 @@
         <v>176474</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>150766</v>
+        <v>154660</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>203586</v>
+        <v>207477</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04789243904521039</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04091561572319898</v>
+        <v>0.04197246415943934</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05525018718128556</v>
+        <v>0.05630614428649849</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>403</v>
@@ -2716,19 +2716,19 @@
         <v>413531</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>372267</v>
+        <v>370730</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>460546</v>
+        <v>456353</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05773548439145387</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05197434605454969</v>
+        <v>0.05175981167754923</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06429946561639695</v>
+        <v>0.06371411860036547</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>86939</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>66537</v>
+        <v>68006</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>111019</v>
+        <v>109247</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02499891025793484</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01913249786479822</v>
+        <v>0.0195547397497499</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03192286756515114</v>
+        <v>0.03141342124375658</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>58</v>
@@ -2766,19 +2766,19 @@
         <v>50321</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37155</v>
+        <v>37931</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>65007</v>
+        <v>66530</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01365651355808147</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01008338281547371</v>
+        <v>0.01029397233266638</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01764205429610399</v>
+        <v>0.01805529094898894</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>128</v>
@@ -2787,19 +2787,19 @@
         <v>137260</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>112705</v>
+        <v>112526</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>165623</v>
+        <v>164414</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01916374320015207</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01573541742644448</v>
+        <v>0.01571035969232764</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02312354591530659</v>
+        <v>0.02295483270859567</v>
       </c>
     </row>
     <row r="33">
